--- a/NhapHangV2.API/Template/UserTemplate.xlsx
+++ b/NhapHangV2.API/Template/UserTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\NhapHangCore\NhapHangV2.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\nhaphangv2.monamedia.net\NhapHangV2.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CED4FF1-6344-4483-AF06-F3809910A73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB11AC3-A7E1-4D9F-9E9F-A800EB6D955B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{01840D0D-C59D-4836-A124-0199945663F5}"/>
   </bookViews>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -153,6 +153,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,7 +478,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -481,7 +487,7 @@
     <col min="2" max="2" width="25.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="27.33203125" style="1" customWidth="1"/>
@@ -502,7 +508,7 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -534,7 +540,7 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">

--- a/NhapHangV2.API/Template/UserTemplate.xlsx
+++ b/NhapHangV2.API/Template/UserTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\nhaphangv2.monamedia.net\NhapHangV2.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB11AC3-A7E1-4D9F-9E9F-A800EB6D955B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4EC020-F551-4C29-AC9B-E1C5FDE98B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{01840D0D-C59D-4836-A124-0199945663F5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{01840D0D-C59D-4836-A124-0199945663F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>HỌ VÀ TÊN</t>
   </si>
@@ -93,6 +85,12 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>[[%Field:LevelName%]]</t>
   </si>
 </sst>
 </file>
@@ -475,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E58D76-26B2-4059-AB77-9DBD6D08263B}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -489,13 +487,14 @@
     <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="1"/>
+    <col min="7" max="7" width="23" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -515,19 +514,22 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -547,15 +549,18 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
